--- a/data/step_case.xlsx
+++ b/data/step_case.xlsx
@@ -7,18 +7,18 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SHG_FIX" sheetId="1" r:id="rId1"/>
     <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SHG_FIX!$A$1:$M$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>编号[0]</t>
   </si>
@@ -26,149 +26,121 @@
     <t>feature(市场模块大模块)[1]</t>
   </si>
   <si>
-    <t>story(小模块)[2]</t>
-  </si>
-  <si>
-    <t>请求方法[3]</t>
-  </si>
-  <si>
-    <t>功能号(action)[4]</t>
-  </si>
-  <si>
-    <t>业务类型(orderType)[5]</t>
-  </si>
-  <si>
-    <t>参数类型[6]</t>
-  </si>
-  <si>
-    <t>预期结果[7]</t>
-  </si>
-  <si>
-    <t>检查结果[8]</t>
-  </si>
-  <si>
-    <t>用例名[9]</t>
-  </si>
-  <si>
-    <t>备注[10]</t>
-  </si>
-  <si>
-    <t>级别[11]</t>
-  </si>
-  <si>
-    <t>数据库SQL[12]</t>
-  </si>
-  <si>
-    <t>数据库变量[13]</t>
-  </si>
-  <si>
-    <t>数据库预期[14]</t>
-  </si>
-  <si>
-    <t>XSHG_FIX</t>
+    <t>story(业务小模块)[2]</t>
+  </si>
+  <si>
+    <t>用例名title[3]</t>
+  </si>
+  <si>
+    <t>用例描述[4]</t>
+  </si>
+  <si>
+    <t>用例级别[5]</t>
+  </si>
+  <si>
+    <t>功能号(action)[6]</t>
+  </si>
+  <si>
+    <t>选取报文文件[7]</t>
+  </si>
+  <si>
+    <t>修改参数[8]</t>
+  </si>
+  <si>
+    <t>数据库SQL[9]</t>
+  </si>
+  <si>
+    <t>数据库变量[10]</t>
+  </si>
+  <si>
+    <t>数据库预期结果[11]</t>
+  </si>
+  <si>
+    <t>测试结果[12]</t>
+  </si>
+  <si>
+    <t>上交所固收（XSHG_FIX）</t>
   </si>
   <si>
     <t>协商成交（XSCJ_SHG）</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>xml</t>
-  </si>
-  <si>
-    <t>ordstatus=5</t>
-  </si>
-  <si>
-    <t>A_001置顶用例，正常登陆并获取TOKEN</t>
-  </si>
-  <si>
-    <t>置顶用例获取TOKEN</t>
+    <t>上交所协商成交_正常申报</t>
+  </si>
+  <si>
+    <t>上交所协商成交各接口各要素正确，申报成功</t>
   </si>
   <si>
     <t>blocker</t>
   </si>
   <si>
-    <t>确定报价（QDBJ_SHG）</t>
-  </si>
-  <si>
-    <t>DS_004验证输入的商品ID不存在提示用户</t>
-  </si>
-  <si>
-    <t>提示错误信息：
-{
-    "msg": "商品不存在或已删除",
-    "code": -1,
-    "data": ""
-}</t>
+    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+  </si>
+  <si>
+    <t>{"matchNo":"110","sysOrdID":""}</t>
+  </si>
+  <si>
+    <t>select t.ordstatus,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
+  </si>
+  <si>
+    <t>all_val["sysOrdID"]</t>
+  </si>
+  <si>
+    <t>{"ordstatus":2,"errinfo":"网络发生故障，与EzDataAccess的通信链路不可用！"}</t>
+  </si>
+  <si>
+    <t>上交所协商成交_申报_方向错误</t>
+  </si>
+  <si>
+    <t>{"matchNo":"111","sysOrdID":""}</t>
+  </si>
+  <si>
+    <t>{"ordstatus":2,"errinfo":"方向错误"}</t>
+  </si>
+  <si>
+    <t>上交所协商成交_正常撤单</t>
+  </si>
+  <si>
+    <t>上交所协商成交各接口各要素正确，撤单成功</t>
   </si>
   <si>
     <t>critical</t>
   </si>
   <si>
-    <t>select * from sxo_goods where id = 1211</t>
-  </si>
-  <si>
-    <t>XSHG_LARGE</t>
-  </si>
-  <si>
-    <t>债券回售（ZQHS_SHG）</t>
-  </si>
-  <si>
-    <t>DS_006验证输入的参数非整数提示用户</t>
-  </si>
-  <si>
-    <t>报价出库（BJCK_SHG）</t>
-  </si>
-  <si>
-    <t>DS_010用户名为不超过7位，注册成功</t>
-  </si>
-  <si>
-    <t>能够正确的注册，数据库插入数据，并提示：
-{
-    "msg": "注册成功",
-    "code": 0,
-    "data": {
-        "body_html": "",
-        "user_id": "XXX"
-    }
-}</t>
-  </si>
-  <si>
-    <t>select count(*) from sxo_user where username = "yulisa002"</t>
-  </si>
-  <si>
-    <t>XSHE_FIX</t>
-  </si>
-  <si>
-    <t>协商成交（XSCJ_SHE）</t>
-  </si>
-  <si>
-    <t>DS_013验证当type输入不存在的类型提示错误信息</t>
-  </si>
-  <si>
-    <t>提示错误信息：
-{
-    "msg": "注册类型有误",
-    "code": -1,
-    "data": ""
-}</t>
-  </si>
-  <si>
-    <t>点击成交（DJCJ_SHE）</t>
-  </si>
-  <si>
-    <t>DS_022使用用户名能正确的登录用户</t>
-  </si>
-  <si>
-    <t>能够正确的登录并且显示对应的用户信息：
-{
-    "msg": "登录成功",
-    "code": 0,
-    "data": {
-      ...
-    }
-}</t>
+    <t>1101;1102</t>
+  </si>
+  <si>
+    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
+  </si>
+  <si>
+    <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
+  </si>
+  <si>
+    <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype,t.errinfo,t.*from ttrd_fix_action t where t.o_sysordid={0}</t>
+  </si>
+  <si>
+    <t>{"ordstatus":9,"act_status":6,"acttype":"W"};{"actstatus":"6","acttype":"W"}</t>
+  </si>
+  <si>
+    <t>上交所协商成交_正常成交</t>
+  </si>
+  <si>
+    <t>上交所协商成交各接口各要素正确，正常成交</t>
+  </si>
+  <si>
+    <t>1101;1101</t>
+  </si>
+  <si>
+    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+  </si>
+  <si>
+    <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0"}</t>
+  </si>
+  <si>
+    <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
+  </si>
+  <si>
+    <t>{"ordstatus":7}</t>
   </si>
   <si>
     <t>1.以下几列，无值时一定要填None不然会报错</t>
@@ -209,9 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -805,19 +777,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1137,306 +1115,229 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" customWidth="1"/>
-    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="31.7037037037037" customWidth="1"/>
-    <col min="5" max="5" width="19.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="29.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="17.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="42.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="21.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="13.4444444444444" customWidth="1"/>
-    <col min="13" max="13" width="31.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="34.6111111111111" customWidth="1"/>
-    <col min="15" max="15" width="16.4074074074074" customWidth="1"/>
+    <col min="1" max="1" width="11.8055555555556" customWidth="1"/>
+    <col min="2" max="2" width="27.2407407407407" customWidth="1"/>
+    <col min="3" max="3" width="43.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="40.1944444444444" customWidth="1"/>
+    <col min="5" max="5" width="53.4907407407407" customWidth="1"/>
+    <col min="6" max="6" width="15.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="20.5462962962963" customWidth="1"/>
+    <col min="8" max="8" width="82.9074074074074" customWidth="1"/>
+    <col min="9" max="9" width="80.4166666666667" customWidth="1"/>
+    <col min="10" max="10" width="98.9351851851852" customWidth="1"/>
+    <col min="11" max="11" width="23.8611111111111" customWidth="1"/>
+    <col min="12" max="12" width="88.6851851851852" customWidth="1"/>
+    <col min="13" max="13" width="14.0185185185185" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
+    <row r="1" ht="14.4" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" ht="47" customHeight="1" spans="1:12">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1101</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1" spans="1:12">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="3" ht="22" customHeight="1" spans="1:12">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4">
+      <c r="G3" s="6">
         <v>1101</v>
       </c>
-      <c r="F2" s="3">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2" t="s">
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" ht="43" customHeight="1" spans="1:13">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="4" ht="74" customHeight="1" spans="1:12">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="66" customHeight="1" spans="1:12">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4">
-        <v>1101</v>
-      </c>
-      <c r="F3" s="4">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="43" customHeight="1" spans="1:11">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1101</v>
-      </c>
-      <c r="F4" s="4">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1" spans="1:15">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1101</v>
-      </c>
-      <c r="F5" s="4">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="87" customHeight="1" spans="1:11">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1101</v>
-      </c>
-      <c r="F6" s="4">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="I5" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" ht="79" customHeight="1" spans="1:12">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1101</v>
-      </c>
-      <c r="F7" s="4">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7" t="s">
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O7">
-    <extLst>
-      <etc:autoFilterAnalysis etc:version="v1" etc:showPane="0"/>
-    </extLst>
+  <autoFilter ref="A1:M5">
+    <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1449,7 +1350,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1461,15 +1362,15 @@
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/step_case.xlsx
+++ b/data/step_case.xlsx
@@ -11,14 +11,14 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SHG_FIX!$A$1:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SHG_FIX!$A$1:$M$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>编号[0]</t>
   </si>
@@ -77,7 +77,7 @@
     <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
   </si>
   <si>
-    <t>{"matchNo":"110","sysOrdID":""}</t>
+    <t>{"matchNo":"510","sysOrdID":""}</t>
   </si>
   <si>
     <t>select t.ordstatus,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
@@ -86,16 +86,7 @@
     <t>all_val["sysOrdID"]</t>
   </si>
   <si>
-    <t>{"ordstatus":2,"errinfo":"网络发生故障，与EzDataAccess的通信链路不可用！"}</t>
-  </si>
-  <si>
-    <t>上交所协商成交_申报_方向错误</t>
-  </si>
-  <si>
-    <t>{"matchNo":"111","sysOrdID":""}</t>
-  </si>
-  <si>
-    <t>{"ordstatus":2,"errinfo":"方向错误"}</t>
+    <t>{"ORDSTATUS":5}</t>
   </si>
   <si>
     <t>上交所协商成交_正常撤单</t>
@@ -113,13 +104,13 @@
     <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
   </si>
   <si>
-    <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
-  </si>
-  <si>
-    <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype,t.errinfo,t.*from ttrd_fix_action t where t.o_sysordid={0}</t>
-  </si>
-  <si>
-    <t>{"ordstatus":9,"act_status":6,"acttype":"W"};{"actstatus":"6","acttype":"W"}</t>
+    <t>{"matchNo":"512","sysOrdID":""};{"orgSysOrdID":""}</t>
+  </si>
+  <si>
+    <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
+  </si>
+  <si>
+    <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W"};{"ACTSTATUS":6,"ACTTYPE":"W"}</t>
   </si>
   <si>
     <t>上交所协商成交_正常成交</t>
@@ -134,13 +125,13 @@
     <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
   </si>
   <si>
-    <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0"}</t>
+    <t>{"matchNo":"513","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"513","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
   </si>
   <si>
     <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
   </si>
   <si>
-    <t>{"ordstatus":7}</t>
+    <t>{"ORDSTATUS":7}</t>
   </si>
   <si>
     <t>1.以下几列，无值时一定要填None不然会报错</t>
@@ -1115,17 +1106,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.8055555555556" customWidth="1"/>
     <col min="2" max="2" width="27.2407407407407" customWidth="1"/>
@@ -1221,7 +1212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:12">
+    <row r="3" ht="74" customHeight="1" spans="1:12">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1235,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1101</v>
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" ht="74" customHeight="1" spans="1:12">
+    <row r="4" ht="83" customHeight="1" spans="1:12">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1270,73 +1261,35 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="66" customHeight="1" spans="1:12">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M5">
+  <autoFilter ref="A1:M4">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1362,15 +1315,15 @@
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/step_case.xlsx
+++ b/data/step_case.xlsx
@@ -77,7 +77,7 @@
     <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
   </si>
   <si>
-    <t>{"matchNo":"510","sysOrdID":""}</t>
+    <t>{"matchNo":"110","sysOrdID":""}</t>
   </si>
   <si>
     <t>select t.ordstatus,t.errinfo from ttrd_fix_order t  where t.sysordid={0}</t>
@@ -104,7 +104,7 @@
     <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
   </si>
   <si>
-    <t>{"matchNo":"512","sysOrdID":""};{"orgSysOrdID":""}</t>
+    <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
   </si>
   <si>
     <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
@@ -125,7 +125,7 @@
     <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
   </si>
   <si>
-    <t>{"matchNo":"513","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"513","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
+    <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
   </si>
   <si>
     <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
@@ -1108,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/data/step_case.xlsx
+++ b/data/step_case.xlsx
@@ -4,62 +4,59 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SHG_FIX" sheetId="1" r:id="rId1"/>
-    <sheet name="备注" sheetId="2" r:id="rId2"/>
+    <sheet name="上交所固收（XSHG_FIX）" sheetId="1" r:id="rId1"/>
+    <sheet name="上交所综业平台（XSHG_LARGE）" sheetId="2" r:id="rId2"/>
+    <sheet name="上交所竞价平台（XSHG_NORMAL）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SHG_FIX!$A$1:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'上交所固收（XSHG_FIX）'!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'上交所综业平台（XSHG_LARGE）'!$A$1:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'上交所竞价平台（XSHG_NORMAL）'!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>编号[0]</t>
   </si>
   <si>
-    <t>feature(市场模块大模块)[1]</t>
-  </si>
-  <si>
-    <t>story(业务小模块)[2]</t>
-  </si>
-  <si>
-    <t>用例名title[3]</t>
-  </si>
-  <si>
-    <t>用例描述[4]</t>
-  </si>
-  <si>
-    <t>用例级别[5]</t>
-  </si>
-  <si>
-    <t>功能号(action)[6]</t>
-  </si>
-  <si>
-    <t>选取报文文件[7]</t>
-  </si>
-  <si>
-    <t>修改参数[8]</t>
-  </si>
-  <si>
-    <t>数据库SQL[9]</t>
-  </si>
-  <si>
-    <t>数据库变量[10]</t>
-  </si>
-  <si>
-    <t>数据库预期结果[11]</t>
-  </si>
-  <si>
-    <t>测试结果[12]</t>
-  </si>
-  <si>
-    <t>上交所固收（XSHG_FIX）</t>
+    <t>story(业务小模块)[1]</t>
+  </si>
+  <si>
+    <t>用例名title[2]</t>
+  </si>
+  <si>
+    <t>用例描述[3]</t>
+  </si>
+  <si>
+    <t>用例级别[4]</t>
+  </si>
+  <si>
+    <t>功能号(action)[5]</t>
+  </si>
+  <si>
+    <t>选取报文文件[6]</t>
+  </si>
+  <si>
+    <t>修改参数[7]</t>
+  </si>
+  <si>
+    <t>数据库SQL[8]</t>
+  </si>
+  <si>
+    <t>数据库变量[9]</t>
+  </si>
+  <si>
+    <t>数据库预期结果[10]</t>
+  </si>
+  <si>
+    <t>测试结果[11]</t>
   </si>
   <si>
     <t>协商成交（XSCJ_SHG）</t>
@@ -86,63 +83,106 @@
     <t>all_val["sysOrdID"]</t>
   </si>
   <si>
+    <t>{"ORDSTATUS":5</t>
+  </si>
+  <si>
+    <t>预期结果值转换成字典格式失败，请检查预期结果列数据！！！</t>
+  </si>
+  <si>
+    <t>上交所协商成交_正常撤单</t>
+  </si>
+  <si>
+    <t>上交所协商成交各接口各要素正确，撤单成功</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>1101;1102</t>
+  </si>
+  <si>
+    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
+  </si>
+  <si>
+    <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
+  </si>
+  <si>
+    <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
+  </si>
+  <si>
+    <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W"}</t>
+  </si>
+  <si>
+    <t>查询sql与预期结果字典个数不对应，请检查！！！</t>
+  </si>
+  <si>
+    <t>上交所协商成交_正常成交</t>
+  </si>
+  <si>
+    <t>上交所协商成交各接口各要素正确，正常成交</t>
+  </si>
+  <si>
+    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
+  </si>
+  <si>
+    <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
+  </si>
+  <si>
+    <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
+  </si>
+  <si>
+    <t>{"ORDSTATUS":7}</t>
+  </si>
+  <si>
+    <t>用例中传递的功能号、读取报文地址、修改参数个数不对应请检查！！！</t>
+  </si>
+  <si>
+    <t>债券回售（XSHG_LARGE）</t>
+  </si>
+  <si>
+    <t>{"matchNo":"111","sysOrdID":""</t>
+  </si>
+  <si>
     <t>{"ORDSTATUS":5}</t>
   </si>
   <si>
-    <t>上交所协商成交_正常撤单</t>
-  </si>
-  <si>
-    <t>上交所协商成交各接口各要素正确，撤单成功</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>1101;1102</t>
-  </si>
-  <si>
-    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1102_SHG_CD.xml</t>
-  </si>
-  <si>
-    <t>{"matchNo":"112","sysOrdID":""};{"orgSysOrdID":""}</t>
-  </si>
-  <si>
-    <t>select t.ordstatus,t.act_status,t.acttype from ttrd_fix_order t where t.sysordid={0};select t.actstatus,t.acttype from ttrd_fix_action t where t.o_sysordid={0}</t>
+    <t>修改参数转换成字典格式错误，请检查修改参数列数据！！！</t>
+  </si>
+  <si>
+    <t>all_val["sysOrdID"</t>
   </si>
   <si>
     <t>{"ORDSTATUS":9,"ACT_STATUS":"6","ACTTYPE":"W"};{"ACTSTATUS":6,"ACTTYPE":"W"}</t>
   </si>
   <si>
-    <t>上交所协商成交_正常成交</t>
-  </si>
-  <si>
-    <t>上交所协商成交各接口各要素正确，正常成交</t>
+    <t>数据库变量转换失败，请检查数据库变量列的数据！！！</t>
   </si>
   <si>
     <t>1101;1101</t>
   </si>
   <si>
-    <t>data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml;data/shg_fix/DS_1101_SHG_Fix_XSCJ.xml</t>
-  </si>
-  <si>
-    <t>{"matchNo":"113","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"113","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
-  </si>
-  <si>
-    <t>select t.ordstatus from ttrd_fix_order t  where t.sysordid={0}</t>
-  </si>
-  <si>
-    <t>{"ORDSTATUS":7}</t>
-  </si>
-  <si>
-    <t>1.以下几列，无值时一定要填None不然会报错</t>
-  </si>
-  <si>
-    <t>公共参数(PARAMS)
-请求头
-参数</t>
-  </si>
-  <si>
-    <t>2.参数类型必须有值，要么json要么data</t>
+    <t>select t.ordstatus from ttrd_fix_oder t  where t.sysordid={0}</t>
+  </si>
+  <si>
+    <t>sql语句有误，请检查！！！</t>
+  </si>
+  <si>
+    <t>股配债（XSHG_LARGE）</t>
+  </si>
+  <si>
+    <t>{"matchNo":"121","sysOrdID":""}</t>
+  </si>
+  <si>
+    <t>测试不通过</t>
+  </si>
+  <si>
+    <t>{"matchNo":"122","sysOrdID":""};{"orgSysOrdID":""}</t>
+  </si>
+  <si>
+    <t>测试通过</t>
+  </si>
+  <si>
+    <t>{"matchNo":"123","sysOrdID":"","dir":"B","bOrdCount":"120","bOrdPrice":"102.889","sOrdCount":"0","sOrdPrice":"0","trader":"Z31605","obTrader":"Z31608"};{"sysOrdID":"","matchNo":"123","dir":"S","sOrdCount":"120","sOrdPrice":"102.889","bOrdCount":"0","bOrdPrice":"0","trader":"Z31608","obTrader":"Z31605"}</t>
   </si>
 </sst>
 </file>
@@ -155,16 +195,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+  <fonts count="21">
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -628,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -640,31 +672,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,117 +709,110 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,190 +1134,186 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.8055555555556" customWidth="1"/>
-    <col min="2" max="2" width="27.2407407407407" customWidth="1"/>
-    <col min="3" max="3" width="43.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="40.1944444444444" customWidth="1"/>
-    <col min="5" max="5" width="53.4907407407407" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" customWidth="1"/>
-    <col min="7" max="7" width="20.5462962962963" customWidth="1"/>
-    <col min="8" max="8" width="82.9074074074074" customWidth="1"/>
-    <col min="9" max="9" width="80.4166666666667" customWidth="1"/>
-    <col min="10" max="10" width="98.9351851851852" customWidth="1"/>
-    <col min="11" max="11" width="23.8611111111111" customWidth="1"/>
-    <col min="12" max="12" width="88.6851851851852" customWidth="1"/>
-    <col min="13" max="13" width="14.0185185185185" customWidth="1"/>
+    <col min="2" max="2" width="43.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="40.1944444444444" customWidth="1"/>
+    <col min="4" max="4" width="53.4907407407407" customWidth="1"/>
+    <col min="5" max="5" width="15.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.4074074074074" customWidth="1"/>
+    <col min="7" max="7" width="82.9074074074074" customWidth="1"/>
+    <col min="8" max="8" width="80.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="98.9351851851852" customWidth="1"/>
+    <col min="10" max="10" width="23.8611111111111" customWidth="1"/>
+    <col min="11" max="11" width="88.6851851851852" customWidth="1"/>
+    <col min="12" max="12" width="61.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.4" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" ht="47" customHeight="1" spans="1:12">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4">
+        <v>1101</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6">
-        <v>1101</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" ht="74" customHeight="1" spans="1:12">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="83" customHeight="1" spans="1:12">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1101</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M4">
+  <autoFilter ref="A1:L4">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,33 +1325,381 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="44.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.8055555555556" customWidth="1"/>
+    <col min="2" max="2" width="43.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="40.1944444444444" customWidth="1"/>
+    <col min="4" max="4" width="53.4907407407407" customWidth="1"/>
+    <col min="5" max="5" width="15.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.4074074074074" customWidth="1"/>
+    <col min="7" max="7" width="82.9074074074074" customWidth="1"/>
+    <col min="8" max="8" width="80.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="98.9351851851852" customWidth="1"/>
+    <col min="10" max="10" width="23.8611111111111" customWidth="1"/>
+    <col min="11" max="11" width="88.6851851851852" customWidth="1"/>
+    <col min="12" max="12" width="56.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.4" customHeight="1" spans="1:2">
+    <row r="1" ht="14.4" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="47" customHeight="1" spans="1:12">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
+    <row r="3" ht="74" customHeight="1" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" ht="83" customHeight="1" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:L4">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="11.8055555555556" customWidth="1"/>
+    <col min="2" max="2" width="43.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="40.1944444444444" customWidth="1"/>
+    <col min="4" max="4" width="53.4907407407407" customWidth="1"/>
+    <col min="5" max="5" width="15.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.4074074074074" customWidth="1"/>
+    <col min="7" max="7" width="82.9074074074074" customWidth="1"/>
+    <col min="8" max="8" width="80.4166666666667" customWidth="1"/>
+    <col min="9" max="9" width="98.9351851851852" customWidth="1"/>
+    <col min="10" max="10" width="46.4722222222222" customWidth="1"/>
+    <col min="11" max="11" width="88.6851851851852" customWidth="1"/>
+    <col min="12" max="12" width="14.0185185185185" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.4" customHeight="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="47" customHeight="1" spans="1:12">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1101</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" ht="74" customHeight="1" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="83" customHeight="1" spans="1:12">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L4">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>